--- a/test.xlsx
+++ b/test.xlsx
@@ -16,15 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>ram</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>cust_name</t>
+  </si>
+  <si>
+    <t>cust_id</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>curr_reading</t>
+  </si>
+  <si>
+    <t>prev_reading</t>
   </si>
 </sst>
 </file>
@@ -356,28 +365,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="D2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>23000</v>
+      </c>
+      <c r="D3">
+        <v>28000</v>
       </c>
     </row>
   </sheetData>
